--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2377,28 +2377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>753.786763022434</v>
+        <v>847.4317800090897</v>
       </c>
       <c r="AB2" t="n">
-        <v>1031.364303892279</v>
+        <v>1159.493547459996</v>
       </c>
       <c r="AC2" t="n">
-        <v>932.9323422576907</v>
+        <v>1048.833110649828</v>
       </c>
       <c r="AD2" t="n">
-        <v>753786.763022434</v>
+        <v>847431.7800090897</v>
       </c>
       <c r="AE2" t="n">
-        <v>1031364.303892279</v>
+        <v>1159493.547459996</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.216168447587265e-06</v>
+        <v>2.055993102304518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.65895061728395</v>
       </c>
       <c r="AH2" t="n">
-        <v>932932.3422576907</v>
+        <v>1048833.110649828</v>
       </c>
     </row>
     <row r="3">
@@ -2483,28 +2483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.4093129294687</v>
+        <v>511.8962181569538</v>
       </c>
       <c r="AB3" t="n">
-        <v>614.9016484896997</v>
+        <v>700.3989889496431</v>
       </c>
       <c r="AC3" t="n">
-        <v>556.2162981777259</v>
+        <v>633.5538924604434</v>
       </c>
       <c r="AD3" t="n">
-        <v>449409.3129294688</v>
+        <v>511896.2181569537</v>
       </c>
       <c r="AE3" t="n">
-        <v>614901.6484896997</v>
+        <v>700398.9889496431</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.706060025904578e-06</v>
+        <v>2.884179122008993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>556216.2981777259</v>
+        <v>633553.8924604434</v>
       </c>
     </row>
     <row r="4">
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>380.1007499731991</v>
+        <v>442.5023143461125</v>
       </c>
       <c r="AB4" t="n">
-        <v>520.0706149749341</v>
+        <v>605.4511883126798</v>
       </c>
       <c r="AC4" t="n">
-        <v>470.435805405418</v>
+        <v>547.6677766561967</v>
       </c>
       <c r="AD4" t="n">
-        <v>380100.7499731992</v>
+        <v>442502.3143461125</v>
       </c>
       <c r="AE4" t="n">
-        <v>520070.6149749341</v>
+        <v>605451.1883126799</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.896701795768626e-06</v>
+        <v>3.206468492884555e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.68287037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>470435.805405418</v>
+        <v>547667.7766561967</v>
       </c>
     </row>
     <row r="5">
@@ -2695,28 +2695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>348.2639713907401</v>
+        <v>400.2511410676236</v>
       </c>
       <c r="AB5" t="n">
-        <v>476.5101299788699</v>
+        <v>547.6412690428401</v>
       </c>
       <c r="AC5" t="n">
-        <v>431.0326719598535</v>
+        <v>495.3751549447392</v>
       </c>
       <c r="AD5" t="n">
-        <v>348263.9713907401</v>
+        <v>400251.1410676236</v>
       </c>
       <c r="AE5" t="n">
-        <v>476510.1299788699</v>
+        <v>547641.2690428401</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.001160881239588e-06</v>
+        <v>3.383061759736206e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.12345679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>431032.6719598536</v>
+        <v>495375.1549447392</v>
       </c>
     </row>
     <row r="6">
@@ -2801,28 +2801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>316.086650828049</v>
+        <v>368.1590718509531</v>
       </c>
       <c r="AB6" t="n">
-        <v>432.4837004218005</v>
+        <v>503.7314841384199</v>
       </c>
       <c r="AC6" t="n">
-        <v>391.2080630482288</v>
+        <v>455.6560582838268</v>
       </c>
       <c r="AD6" t="n">
-        <v>316086.6508280489</v>
+        <v>368159.0718509531</v>
       </c>
       <c r="AE6" t="n">
-        <v>432483.7004218005</v>
+        <v>503731.48413842</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.063290141225585e-06</v>
+        <v>3.488094356360391e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.818672839506172</v>
       </c>
       <c r="AH6" t="n">
-        <v>391208.0630482289</v>
+        <v>455656.0582838268</v>
       </c>
     </row>
     <row r="7">
@@ -2907,28 +2907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>316.8588975697628</v>
+        <v>368.9313185926669</v>
       </c>
       <c r="AB7" t="n">
-        <v>433.5403224829351</v>
+        <v>504.7881061995546</v>
       </c>
       <c r="AC7" t="n">
-        <v>392.1638425828272</v>
+        <v>456.6118378184252</v>
       </c>
       <c r="AD7" t="n">
-        <v>316858.8975697628</v>
+        <v>368931.3185926669</v>
       </c>
       <c r="AE7" t="n">
-        <v>433540.3224829351</v>
+        <v>504788.1061995546</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.060244074379273e-06</v>
+        <v>3.482944829222435e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.834104938271604</v>
       </c>
       <c r="AH7" t="n">
-        <v>392163.8425828271</v>
+        <v>456611.8378184251</v>
       </c>
     </row>
   </sheetData>
@@ -3204,28 +3204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>570.1142541206582</v>
+        <v>650.7534560169677</v>
       </c>
       <c r="AB2" t="n">
-        <v>780.0554741536616</v>
+        <v>890.3895877387005</v>
       </c>
       <c r="AC2" t="n">
-        <v>705.6080745151695</v>
+        <v>805.4120551545533</v>
       </c>
       <c r="AD2" t="n">
-        <v>570114.2541206582</v>
+        <v>650753.4560169677</v>
       </c>
       <c r="AE2" t="n">
-        <v>780055.4741536616</v>
+        <v>890389.5877387004</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.441308465238669e-06</v>
+        <v>2.496045039109587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.54475308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>705608.0745151695</v>
+        <v>805412.0551545533</v>
       </c>
     </row>
     <row r="3">
@@ -3310,28 +3310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>376.2534127949416</v>
+        <v>426.7063415227933</v>
       </c>
       <c r="AB3" t="n">
-        <v>514.8065185151049</v>
+        <v>583.838441426676</v>
       </c>
       <c r="AC3" t="n">
-        <v>465.6741069235092</v>
+        <v>528.1177199993123</v>
       </c>
       <c r="AD3" t="n">
-        <v>376253.4127949416</v>
+        <v>426706.3415227932</v>
       </c>
       <c r="AE3" t="n">
-        <v>514806.5185151049</v>
+        <v>583838.441426676</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.897241996102362e-06</v>
+        <v>3.285626627869346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.04938271604938</v>
       </c>
       <c r="AH3" t="n">
-        <v>465674.1069235092</v>
+        <v>528117.7199993123</v>
       </c>
     </row>
     <row r="4">
@@ -3416,28 +3416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.5005517119222</v>
+        <v>369.8681395852022</v>
       </c>
       <c r="AB4" t="n">
-        <v>437.1547502217932</v>
+        <v>506.0699060111667</v>
       </c>
       <c r="AC4" t="n">
-        <v>395.4333144111699</v>
+        <v>457.7713044550343</v>
       </c>
       <c r="AD4" t="n">
-        <v>319500.5517119222</v>
+        <v>369868.1395852022</v>
       </c>
       <c r="AE4" t="n">
-        <v>437154.7502217932</v>
+        <v>506069.9060111667</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.071802820061495e-06</v>
+        <v>3.587929493060613e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.11574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>395433.3144111698</v>
+        <v>457771.3044550343</v>
       </c>
     </row>
     <row r="5">
@@ -3522,28 +3522,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>293.3645380546358</v>
+        <v>343.8173772739365</v>
       </c>
       <c r="AB5" t="n">
-        <v>401.3943032963489</v>
+        <v>470.4261037383718</v>
       </c>
       <c r="AC5" t="n">
-        <v>363.0857943501875</v>
+        <v>425.5292966447641</v>
       </c>
       <c r="AD5" t="n">
-        <v>293364.5380546358</v>
+        <v>343817.3772739365</v>
       </c>
       <c r="AE5" t="n">
-        <v>401394.303296349</v>
+        <v>470426.1037383717</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.126675659214537e-06</v>
+        <v>3.682957782460918e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.857253086419753</v>
       </c>
       <c r="AH5" t="n">
-        <v>363085.7943501875</v>
+        <v>425529.2966447641</v>
       </c>
     </row>
   </sheetData>
@@ -3819,28 +3819,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.9446611976467</v>
+        <v>315.5515140193673</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.0359975165925</v>
+        <v>431.7515026315925</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.9609830167779</v>
+        <v>390.5457451874723</v>
       </c>
       <c r="AD2" t="n">
-        <v>260944.6611976467</v>
+        <v>315551.5140193673</v>
       </c>
       <c r="AE2" t="n">
-        <v>357035.9975165925</v>
+        <v>431751.5026315924</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.181731336437891e-06</v>
+        <v>4.128305174694901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.72145061728395</v>
       </c>
       <c r="AH2" t="n">
-        <v>322960.9830167779</v>
+        <v>390545.7451874723</v>
       </c>
     </row>
     <row r="3">
@@ -3925,28 +3925,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>250.3119627924612</v>
+        <v>295.8035395100206</v>
       </c>
       <c r="AB3" t="n">
-        <v>342.4878704769086</v>
+        <v>404.7314526887565</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.8013088034397</v>
+        <v>366.1044508883024</v>
       </c>
       <c r="AD3" t="n">
-        <v>250311.9627924612</v>
+        <v>295803.5395100206</v>
       </c>
       <c r="AE3" t="n">
-        <v>342487.8704769086</v>
+        <v>404731.4526887565</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.25035754164095e-06</v>
+        <v>4.258160722592941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.39351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>309801.3088034397</v>
+        <v>366104.4508883024</v>
       </c>
     </row>
   </sheetData>
@@ -4222,28 +4222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>352.4317527487883</v>
+        <v>418.7374864924523</v>
       </c>
       <c r="AB2" t="n">
-        <v>482.2126723024882</v>
+        <v>572.9351024130916</v>
       </c>
       <c r="AC2" t="n">
-        <v>436.1909716476741</v>
+        <v>518.2549803582519</v>
       </c>
       <c r="AD2" t="n">
-        <v>352431.7527487883</v>
+        <v>418737.4864924523</v>
       </c>
       <c r="AE2" t="n">
-        <v>482212.6723024882</v>
+        <v>572935.1024130916</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.879970144760283e-06</v>
+        <v>3.424897321650502e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.90200617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>436190.9716476742</v>
+        <v>518254.9803582519</v>
       </c>
     </row>
     <row r="3">
@@ -4328,28 +4328,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>268.2936742185453</v>
+        <v>315.691576767387</v>
       </c>
       <c r="AB3" t="n">
-        <v>367.0912413473583</v>
+        <v>431.9431426625653</v>
       </c>
       <c r="AC3" t="n">
-        <v>332.0565684889588</v>
+        <v>390.7190953628576</v>
       </c>
       <c r="AD3" t="n">
-        <v>268293.6742185453</v>
+        <v>315691.576767387</v>
       </c>
       <c r="AE3" t="n">
-        <v>367091.2413473583</v>
+        <v>431943.1426625653</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.22070204667195e-06</v>
+        <v>4.045636848557697e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.07716049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>332056.5684889588</v>
+        <v>390719.0953628576</v>
       </c>
     </row>
     <row r="4">
@@ -4434,28 +4434,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>269.4899174067033</v>
+        <v>316.887819955545</v>
       </c>
       <c r="AB4" t="n">
-        <v>368.727994051921</v>
+        <v>433.5798953671279</v>
       </c>
       <c r="AC4" t="n">
-        <v>333.5371118125948</v>
+        <v>392.1996386864936</v>
       </c>
       <c r="AD4" t="n">
-        <v>269489.9174067033</v>
+        <v>316887.819955545</v>
       </c>
       <c r="AE4" t="n">
-        <v>368727.994051921</v>
+        <v>433579.8953671279</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.220238071316155e-06</v>
+        <v>4.044791586223184e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.07716049382716</v>
       </c>
       <c r="AH4" t="n">
-        <v>333537.1118125948</v>
+        <v>392199.6386864936</v>
       </c>
     </row>
   </sheetData>
@@ -4731,28 +4731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.3257853909539</v>
+        <v>290.0563443387891</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.7196096464621</v>
+        <v>396.8678867071213</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.7288258487347</v>
+        <v>358.9913726073701</v>
       </c>
       <c r="AD2" t="n">
-        <v>237325.7853909539</v>
+        <v>290056.3443387891</v>
       </c>
       <c r="AE2" t="n">
-        <v>324719.6096464621</v>
+        <v>396867.8867071213</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.230463413853862e-06</v>
+        <v>4.370989634798505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.8912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>293728.8258487348</v>
+        <v>358991.3726073701</v>
       </c>
     </row>
   </sheetData>
@@ -5028,28 +5028,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>617.0253419034245</v>
+        <v>688.255376842088</v>
       </c>
       <c r="AB2" t="n">
-        <v>844.2412940291724</v>
+        <v>941.7013702796108</v>
       </c>
       <c r="AC2" t="n">
-        <v>763.6680898271256</v>
+        <v>851.8267131862983</v>
       </c>
       <c r="AD2" t="n">
-        <v>617025.3419034246</v>
+        <v>688255.3768420881</v>
       </c>
       <c r="AE2" t="n">
-        <v>844241.2940291724</v>
+        <v>941701.3702796109</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.381842234109803e-06</v>
+        <v>2.377433595224592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.03086419753086</v>
       </c>
       <c r="AH2" t="n">
-        <v>763668.0898271257</v>
+        <v>851826.7131862983</v>
       </c>
     </row>
     <row r="3">
@@ -5134,28 +5134,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.1020200815669</v>
+        <v>454.9856668210712</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.2277704296455</v>
+        <v>622.5314618955612</v>
       </c>
       <c r="AC3" t="n">
-        <v>487.7646288307683</v>
+        <v>563.1179329006424</v>
       </c>
       <c r="AD3" t="n">
-        <v>394102.0200815669</v>
+        <v>454985.6668210712</v>
       </c>
       <c r="AE3" t="n">
-        <v>539227.7704296454</v>
+        <v>622531.4618955612</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.847248206120133e-06</v>
+        <v>3.17815582382858e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.24614197530864</v>
       </c>
       <c r="AH3" t="n">
-        <v>487764.6288307683</v>
+        <v>563117.9329006424</v>
       </c>
     </row>
     <row r="4">
@@ -5240,28 +5240,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>334.2322856802106</v>
+        <v>385.0255667842703</v>
       </c>
       <c r="AB4" t="n">
-        <v>457.311358555439</v>
+        <v>526.8089666034253</v>
       </c>
       <c r="AC4" t="n">
-        <v>413.6662043354301</v>
+        <v>476.5310582118221</v>
       </c>
       <c r="AD4" t="n">
-        <v>334232.2856802106</v>
+        <v>385025.5667842703</v>
       </c>
       <c r="AE4" t="n">
-        <v>457311.358555439</v>
+        <v>526808.9666034253</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.027024992392981e-06</v>
+        <v>3.487458406117882e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.24691358024691</v>
       </c>
       <c r="AH4" t="n">
-        <v>413666.2043354301</v>
+        <v>476531.0582118221</v>
       </c>
     </row>
     <row r="5">
@@ -5346,28 +5346,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>298.9280840518031</v>
+        <v>349.8066165018835</v>
       </c>
       <c r="AB5" t="n">
-        <v>409.0065923759998</v>
+        <v>478.6208450766355</v>
       </c>
       <c r="AC5" t="n">
-        <v>369.9715772439914</v>
+        <v>432.9419433710957</v>
       </c>
       <c r="AD5" t="n">
-        <v>298928.0840518031</v>
+        <v>349806.6165018835</v>
       </c>
       <c r="AE5" t="n">
-        <v>409006.5923759998</v>
+        <v>478620.8450766355</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.111340789728494e-06</v>
+        <v>3.632522150911246e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.837962962962964</v>
       </c>
       <c r="AH5" t="n">
-        <v>369971.5772439914</v>
+        <v>432941.9433710957</v>
       </c>
     </row>
     <row r="6">
@@ -5452,28 +5452,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>298.9373807987828</v>
+        <v>349.8159132488632</v>
       </c>
       <c r="AB6" t="n">
-        <v>409.019312595361</v>
+        <v>478.6335652959966</v>
       </c>
       <c r="AC6" t="n">
-        <v>369.9830834634697</v>
+        <v>432.9534495905739</v>
       </c>
       <c r="AD6" t="n">
-        <v>298937.3807987828</v>
+        <v>349815.9132488632</v>
       </c>
       <c r="AE6" t="n">
-        <v>409019.312595361</v>
+        <v>478633.5652959966</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.115271219617059e-06</v>
+        <v>3.63928438167109e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.818672839506172</v>
       </c>
       <c r="AH6" t="n">
-        <v>369983.0834634696</v>
+        <v>432953.449590574</v>
       </c>
     </row>
   </sheetData>
@@ -5749,28 +5749,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.7477113167429</v>
+        <v>291.2819720136814</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.0333955459558</v>
+        <v>398.5448445627857</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.7263486729096</v>
+        <v>360.5082839589151</v>
       </c>
       <c r="AD2" t="n">
-        <v>239747.7113167429</v>
+        <v>291281.9720136814</v>
       </c>
       <c r="AE2" t="n">
-        <v>328033.3955459559</v>
+        <v>398544.8445627857</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.194275070073055e-06</v>
+        <v>4.398776288350094e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.32716049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>296726.3486729096</v>
+        <v>360508.283958915</v>
       </c>
     </row>
   </sheetData>
@@ -6046,28 +6046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>459.6122162114511</v>
+        <v>518.4978161858919</v>
       </c>
       <c r="AB2" t="n">
-        <v>628.8617108804327</v>
+        <v>709.4315866147863</v>
       </c>
       <c r="AC2" t="n">
-        <v>568.844031806958</v>
+        <v>641.7244316817557</v>
       </c>
       <c r="AD2" t="n">
-        <v>459612.2162114512</v>
+        <v>518497.8161858919</v>
       </c>
       <c r="AE2" t="n">
-        <v>628861.7108804327</v>
+        <v>709431.5866147863</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.641727883390624e-06</v>
+        <v>2.907622073194242e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.15586419753087</v>
       </c>
       <c r="AH2" t="n">
-        <v>568844.031806958</v>
+        <v>641724.4316817557</v>
       </c>
     </row>
     <row r="3">
@@ -6152,28 +6152,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.4047084569372</v>
+        <v>362.3907158324914</v>
       </c>
       <c r="AB3" t="n">
-        <v>428.8141485506984</v>
+        <v>495.8389649520536</v>
       </c>
       <c r="AC3" t="n">
-        <v>387.8887280574565</v>
+        <v>448.5167900513869</v>
       </c>
       <c r="AD3" t="n">
-        <v>313404.7084569372</v>
+        <v>362390.7158324914</v>
       </c>
       <c r="AE3" t="n">
-        <v>428814.1485506984</v>
+        <v>495838.9649520536</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.064236733465036e-06</v>
+        <v>3.655916641998843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.46296296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>387888.7280574565</v>
+        <v>448516.7900513869</v>
       </c>
     </row>
     <row r="4">
@@ -6258,28 +6258,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>275.1423917028541</v>
+        <v>333.8572204596005</v>
       </c>
       <c r="AB4" t="n">
-        <v>376.4619587534808</v>
+        <v>456.7981777738906</v>
       </c>
       <c r="AC4" t="n">
-        <v>340.5329577777254</v>
+        <v>413.2020008074189</v>
       </c>
       <c r="AD4" t="n">
-        <v>275142.3917028541</v>
+        <v>333857.2204596005</v>
       </c>
       <c r="AE4" t="n">
-        <v>376461.9587534808</v>
+        <v>456798.1777738907</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.179267958544914e-06</v>
+        <v>3.859645489229031e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.911265432098766</v>
       </c>
       <c r="AH4" t="n">
-        <v>340532.9577777254</v>
+        <v>413202.000807419</v>
       </c>
     </row>
   </sheetData>
@@ -6555,28 +6555,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.9347257146812</v>
+        <v>604.8648162254401</v>
       </c>
       <c r="AB2" t="n">
-        <v>731.9212913773461</v>
+        <v>827.6027263120245</v>
       </c>
       <c r="AC2" t="n">
-        <v>662.0677505862757</v>
+        <v>748.6174836605257</v>
       </c>
       <c r="AD2" t="n">
-        <v>534934.7257146812</v>
+        <v>604864.8162254401</v>
       </c>
       <c r="AE2" t="n">
-        <v>731921.291377346</v>
+        <v>827602.7263120245</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.504524165350495e-06</v>
+        <v>2.623758770518207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>662067.7505862757</v>
+        <v>748617.4836605258</v>
       </c>
     </row>
     <row r="3">
@@ -6661,28 +6661,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>348.7110883669748</v>
+        <v>408.638897675357</v>
       </c>
       <c r="AB3" t="n">
-        <v>477.1218951511631</v>
+        <v>559.1177676752463</v>
       </c>
       <c r="AC3" t="n">
-        <v>431.586051122721</v>
+        <v>505.7563526550355</v>
       </c>
       <c r="AD3" t="n">
-        <v>348711.0883669748</v>
+        <v>408638.8976753571</v>
       </c>
       <c r="AE3" t="n">
-        <v>477121.8951511631</v>
+        <v>559117.7676752463</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.949212191475524e-06</v>
+        <v>3.39925585827563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.85648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>431586.051122721</v>
+        <v>505756.3526550355</v>
       </c>
     </row>
     <row r="4">
@@ -6767,28 +6767,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>293.9467719397617</v>
+        <v>353.7892403935723</v>
       </c>
       <c r="AB4" t="n">
-        <v>402.1909413843243</v>
+        <v>484.0700467862098</v>
       </c>
       <c r="AC4" t="n">
-        <v>363.8064024171351</v>
+        <v>437.8710809175108</v>
       </c>
       <c r="AD4" t="n">
-        <v>293946.7719397617</v>
+        <v>353789.2403935723</v>
       </c>
       <c r="AE4" t="n">
-        <v>402190.9413843243</v>
+        <v>484070.0467862099</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.121756410788468e-06</v>
+        <v>3.700157910333456e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.972993827160495</v>
       </c>
       <c r="AH4" t="n">
-        <v>363806.4024171351</v>
+        <v>437871.0809175108</v>
       </c>
     </row>
     <row r="5">
@@ -6873,28 +6873,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>287.9827729663662</v>
+        <v>337.9937314354944</v>
       </c>
       <c r="AB5" t="n">
-        <v>394.0307348758595</v>
+        <v>462.4579345810934</v>
       </c>
       <c r="AC5" t="n">
-        <v>356.4249945649163</v>
+        <v>418.3215983684608</v>
       </c>
       <c r="AD5" t="n">
-        <v>287982.7729663661</v>
+        <v>337993.7314354944</v>
       </c>
       <c r="AE5" t="n">
-        <v>394030.7348758595</v>
+        <v>462457.9345810934</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.142542888576009e-06</v>
+        <v>3.736407712536226e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.876543209876544</v>
       </c>
       <c r="AH5" t="n">
-        <v>356424.9945649163</v>
+        <v>418321.5983684608</v>
       </c>
     </row>
   </sheetData>
@@ -7170,28 +7170,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>709.5909019229275</v>
+        <v>792.2050531677019</v>
       </c>
       <c r="AB2" t="n">
-        <v>970.8935769521511</v>
+        <v>1083.929903364376</v>
       </c>
       <c r="AC2" t="n">
-        <v>878.2328566255306</v>
+        <v>980.4811546924528</v>
       </c>
       <c r="AD2" t="n">
-        <v>709590.9019229275</v>
+        <v>792205.0531677018</v>
       </c>
       <c r="AE2" t="n">
-        <v>970893.576952151</v>
+        <v>1083929.903364376</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.268135247587898e-06</v>
+        <v>2.155745873487434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.10725308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>878232.8566255306</v>
+        <v>980481.1546924529</v>
       </c>
     </row>
     <row r="3">
@@ -7276,28 +7276,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.3315483405965</v>
+        <v>492.3561002836927</v>
       </c>
       <c r="AB3" t="n">
-        <v>588.7986093276317</v>
+        <v>673.663337626287</v>
       </c>
       <c r="AC3" t="n">
-        <v>532.6044964374402</v>
+        <v>609.3698541756661</v>
       </c>
       <c r="AD3" t="n">
-        <v>430331.5483405965</v>
+        <v>492356.1002836927</v>
       </c>
       <c r="AE3" t="n">
-        <v>588798.6093276317</v>
+        <v>673663.337626287</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.751725958784536e-06</v>
+        <v>2.977818031880576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.65895061728395</v>
       </c>
       <c r="AH3" t="n">
-        <v>532604.4964374402</v>
+        <v>609369.8541756661</v>
       </c>
     </row>
     <row r="4">
@@ -7382,28 +7382,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>364.7184133840344</v>
+        <v>416.4908808578527</v>
       </c>
       <c r="AB4" t="n">
-        <v>499.0238234328431</v>
+        <v>569.8611974705868</v>
       </c>
       <c r="AC4" t="n">
-        <v>451.3976901087469</v>
+        <v>515.4744445892073</v>
       </c>
       <c r="AD4" t="n">
-        <v>364718.4133840344</v>
+        <v>416490.8808578528</v>
       </c>
       <c r="AE4" t="n">
-        <v>499023.8234328431</v>
+        <v>569861.1974705869</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.938544964784857e-06</v>
+        <v>3.295397960393919e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.53626543209877</v>
       </c>
       <c r="AH4" t="n">
-        <v>451397.6901087469</v>
+        <v>515474.4445892073</v>
       </c>
     </row>
     <row r="5">
@@ -7488,28 +7488,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>323.1561890835873</v>
+        <v>385.0100593175401</v>
       </c>
       <c r="AB5" t="n">
-        <v>442.156554549044</v>
+        <v>526.7877486033041</v>
       </c>
       <c r="AC5" t="n">
-        <v>399.9577535535043</v>
+        <v>476.5118652278526</v>
       </c>
       <c r="AD5" t="n">
-        <v>323156.1890835873</v>
+        <v>385010.0593175401</v>
       </c>
       <c r="AE5" t="n">
-        <v>442156.5545490439</v>
+        <v>526787.748603304</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.042886211831225e-06</v>
+        <v>3.472771165012735e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.996141975308642</v>
       </c>
       <c r="AH5" t="n">
-        <v>399957.7535535043</v>
+        <v>476511.8652278526</v>
       </c>
     </row>
     <row r="6">
@@ -7594,28 +7594,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>309.2083052536581</v>
+        <v>360.8954318729049</v>
       </c>
       <c r="AB6" t="n">
-        <v>423.0724445557286</v>
+        <v>493.7930514712748</v>
       </c>
       <c r="AC6" t="n">
-        <v>382.6950042332345</v>
+        <v>446.6661356817561</v>
       </c>
       <c r="AD6" t="n">
-        <v>309208.3052536581</v>
+        <v>360895.4318729049</v>
       </c>
       <c r="AE6" t="n">
-        <v>423072.4445557286</v>
+        <v>493793.0514712748</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.083066326751668e-06</v>
+        <v>3.541074697384973e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.80324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>382695.0042332345</v>
+        <v>446666.1356817561</v>
       </c>
     </row>
     <row r="7">
@@ -7700,28 +7700,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>310.3438302586397</v>
+        <v>362.0309568778865</v>
       </c>
       <c r="AB7" t="n">
-        <v>424.6261199633722</v>
+        <v>495.3467268789183</v>
       </c>
       <c r="AC7" t="n">
-        <v>384.1003990405695</v>
+        <v>448.0715304890912</v>
       </c>
       <c r="AD7" t="n">
-        <v>310343.8302586398</v>
+        <v>362030.9568778866</v>
       </c>
       <c r="AE7" t="n">
-        <v>424626.1199633722</v>
+        <v>495346.7268789184</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.083013388523842e-06</v>
+        <v>3.540984705906223e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.80324074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>384100.3990405696</v>
+        <v>448071.5304890912</v>
       </c>
     </row>
   </sheetData>
@@ -7997,28 +7997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.047582261989</v>
+        <v>447.6112090828924</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.6803097357263</v>
+        <v>612.4414034800706</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.7466099995667</v>
+        <v>553.9908554988403</v>
       </c>
       <c r="AD2" t="n">
-        <v>390047.582261989</v>
+        <v>447611.2090828924</v>
       </c>
       <c r="AE2" t="n">
-        <v>533680.3097357262</v>
+        <v>612441.4034800705</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.795619691587116e-06</v>
+        <v>3.237927219272081e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.3070987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>482746.6099995667</v>
+        <v>553990.8554988403</v>
       </c>
     </row>
     <row r="3">
@@ -8103,28 +8103,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.4264729682659</v>
+        <v>326.3819534280153</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.9553836242574</v>
+        <v>446.5701876357695</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.5975364853965</v>
+        <v>403.9501556930056</v>
       </c>
       <c r="AD3" t="n">
-        <v>278426.4729682659</v>
+        <v>326381.9534280153</v>
       </c>
       <c r="AE3" t="n">
-        <v>380955.3836242574</v>
+        <v>446570.1876357695</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.187926484792607e-06</v>
+        <v>3.945349202878553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.10030864197531</v>
       </c>
       <c r="AH3" t="n">
-        <v>344597.5364853965</v>
+        <v>403950.1556930057</v>
       </c>
     </row>
     <row r="4">
@@ -8209,28 +8209,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>274.6750962389</v>
+        <v>322.6305766986495</v>
       </c>
       <c r="AB4" t="n">
-        <v>375.822584484078</v>
+        <v>441.4373884955902</v>
       </c>
       <c r="AC4" t="n">
-        <v>339.9546044912271</v>
+        <v>399.3072236988363</v>
       </c>
       <c r="AD4" t="n">
-        <v>274675.0962389</v>
+        <v>322630.5766986494</v>
       </c>
       <c r="AE4" t="n">
-        <v>375822.584484078</v>
+        <v>441437.3884955902</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.208085899567546e-06</v>
+        <v>3.981701398240522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.00771604938272</v>
       </c>
       <c r="AH4" t="n">
-        <v>339954.6044912271</v>
+        <v>399307.2236988363</v>
       </c>
     </row>
   </sheetData>
@@ -8506,28 +8506,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.5741933467787</v>
+        <v>342.8328853527109</v>
       </c>
       <c r="AB2" t="n">
-        <v>405.7858952670567</v>
+        <v>469.0790784590328</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.058258946849</v>
+        <v>424.3108295675235</v>
       </c>
       <c r="AD2" t="n">
-        <v>296574.1933467787</v>
+        <v>342832.885352711</v>
       </c>
       <c r="AE2" t="n">
-        <v>405785.8952670567</v>
+        <v>469079.0784590328</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.077690526178892e-06</v>
+        <v>3.876306403161537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.07638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>367058.258946849</v>
+        <v>424310.8295675234</v>
       </c>
     </row>
     <row r="3">
@@ -8612,28 +8612,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.4174269203316</v>
+        <v>302.5907780716954</v>
       </c>
       <c r="AB3" t="n">
-        <v>350.8416358507238</v>
+        <v>414.0180519206725</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.3578025345641</v>
+        <v>374.5047501233481</v>
       </c>
       <c r="AD3" t="n">
-        <v>256417.4269203316</v>
+        <v>302590.7780716954</v>
       </c>
       <c r="AE3" t="n">
-        <v>350841.6358507238</v>
+        <v>414018.0519206725</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243299648430955e-06</v>
+        <v>4.18528008953063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.25848765432099</v>
       </c>
       <c r="AH3" t="n">
-        <v>317357.8025345641</v>
+        <v>374504.7501233481</v>
       </c>
     </row>
   </sheetData>
@@ -14898,28 +14898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.6145799127245</v>
+        <v>297.3301749371121</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.3242157531778</v>
+        <v>406.8202626305048</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.5122204252688</v>
+        <v>367.9939077408733</v>
       </c>
       <c r="AD2" t="n">
-        <v>243614.5799127245</v>
+        <v>297330.1749371121</v>
       </c>
       <c r="AE2" t="n">
-        <v>333324.2157531778</v>
+        <v>406820.2626305048</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.242399957581983e-06</v>
+        <v>4.312218274710613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.61728395061728</v>
       </c>
       <c r="AH2" t="n">
-        <v>301512.2204252688</v>
+        <v>367993.9077408733</v>
       </c>
     </row>
     <row r="3">
@@ -15004,28 +15004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.6778640821865</v>
+        <v>298.3934591065742</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.7790480626219</v>
+        <v>408.2750949399496</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.82820558097</v>
+        <v>369.3098928965748</v>
       </c>
       <c r="AD3" t="n">
-        <v>244677.8640821865</v>
+        <v>298393.4591065742</v>
       </c>
       <c r="AE3" t="n">
-        <v>334779.0480626219</v>
+        <v>408275.0949399496</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.246041018719624e-06</v>
+        <v>4.31922017030198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.60185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>302828.2055809699</v>
+        <v>369309.8928965747</v>
       </c>
     </row>
   </sheetData>
@@ -15301,28 +15301,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.3102095834691</v>
+        <v>292.6373587380675</v>
       </c>
       <c r="AB2" t="n">
-        <v>331.5395187239339</v>
+        <v>400.3993444745327</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.8978523756572</v>
+        <v>362.185793001892</v>
       </c>
       <c r="AD2" t="n">
-        <v>242310.2095834691</v>
+        <v>292637.3587380674</v>
       </c>
       <c r="AE2" t="n">
-        <v>331539.5187239339</v>
+        <v>400399.3444745327</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.111230743549981e-06</v>
+        <v>4.354623098886349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.10262345679012</v>
       </c>
       <c r="AH2" t="n">
-        <v>299897.8523756572</v>
+        <v>362185.793001892</v>
       </c>
     </row>
   </sheetData>
@@ -15598,28 +15598,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>490.9144174830245</v>
+        <v>560.2859992743363</v>
       </c>
       <c r="AB2" t="n">
-        <v>671.6907636158567</v>
+        <v>766.6080222809215</v>
       </c>
       <c r="AC2" t="n">
-        <v>607.5855398602662</v>
+        <v>693.4440285755466</v>
       </c>
       <c r="AD2" t="n">
-        <v>490914.4174830245</v>
+        <v>560285.9992743363</v>
       </c>
       <c r="AE2" t="n">
-        <v>671690.7636158566</v>
+        <v>766608.0222809216</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.572444059056466e-06</v>
+        <v>2.762722182341625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.59182098765432</v>
       </c>
       <c r="AH2" t="n">
-        <v>607585.5398602661</v>
+        <v>693444.0285755466</v>
       </c>
     </row>
     <row r="3">
@@ -15704,28 +15704,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>329.8548535131003</v>
+        <v>389.230868479653</v>
       </c>
       <c r="AB3" t="n">
-        <v>451.3219627457212</v>
+        <v>532.5628459078649</v>
       </c>
       <c r="AC3" t="n">
-        <v>408.2484280556219</v>
+        <v>481.7357953510664</v>
       </c>
       <c r="AD3" t="n">
-        <v>329854.8535131003</v>
+        <v>389230.868479653</v>
       </c>
       <c r="AE3" t="n">
-        <v>451321.9627457212</v>
+        <v>532562.845907865</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.009772619533121e-06</v>
+        <v>3.531091211460135e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.63271604938272</v>
       </c>
       <c r="AH3" t="n">
-        <v>408248.4280556219</v>
+        <v>481735.7953510664</v>
       </c>
     </row>
     <row r="4">
@@ -15810,28 +15810,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>282.9076250724045</v>
+        <v>342.1982991843856</v>
       </c>
       <c r="AB4" t="n">
-        <v>387.0866936276181</v>
+        <v>468.2108096675641</v>
       </c>
       <c r="AC4" t="n">
-        <v>350.143682867384</v>
+        <v>423.5254271308896</v>
       </c>
       <c r="AD4" t="n">
-        <v>282907.6250724045</v>
+        <v>342198.2991843856</v>
       </c>
       <c r="AE4" t="n">
-        <v>387086.6936276181</v>
+        <v>468210.8096675641</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.155234912099517e-06</v>
+        <v>3.786662721335399e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.915123456790123</v>
       </c>
       <c r="AH4" t="n">
-        <v>350143.6828673841</v>
+        <v>423525.4271308896</v>
       </c>
     </row>
     <row r="5">
@@ -15916,28 +15916,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>282.2948040548977</v>
+        <v>331.8459339058346</v>
       </c>
       <c r="AB5" t="n">
-        <v>386.24820487571</v>
+        <v>454.0462467793279</v>
       </c>
       <c r="AC5" t="n">
-        <v>349.3852183051318</v>
+        <v>410.7127102446178</v>
       </c>
       <c r="AD5" t="n">
-        <v>282294.8040548977</v>
+        <v>331845.9339058346</v>
       </c>
       <c r="AE5" t="n">
-        <v>386248.20487571</v>
+        <v>454046.2467793279</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.16088500876432e-06</v>
+        <v>3.796589718291711e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.888117283950617</v>
       </c>
       <c r="AH5" t="n">
-        <v>349385.2183051318</v>
+        <v>410712.7102446178</v>
       </c>
     </row>
   </sheetData>
@@ -16213,28 +16213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>655.2233091622847</v>
+        <v>737.2865633416092</v>
       </c>
       <c r="AB2" t="n">
-        <v>896.5054380081269</v>
+        <v>1008.78800275154</v>
       </c>
       <c r="AC2" t="n">
-        <v>810.9442172579153</v>
+        <v>912.5106916117861</v>
       </c>
       <c r="AD2" t="n">
-        <v>655223.3091622847</v>
+        <v>737286.5633416092</v>
       </c>
       <c r="AE2" t="n">
-        <v>896505.4380081269</v>
+        <v>1008788.00275154</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.325656494205845e-06</v>
+        <v>2.266724870756641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.53626543209877</v>
       </c>
       <c r="AH2" t="n">
-        <v>810944.2172579153</v>
+        <v>912510.6916117861</v>
       </c>
     </row>
     <row r="3">
@@ -16319,28 +16319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.2249476905947</v>
+        <v>473.6017961244958</v>
       </c>
       <c r="AB3" t="n">
-        <v>564.0243595114555</v>
+        <v>648.002871294168</v>
       </c>
       <c r="AC3" t="n">
-        <v>510.1946662528418</v>
+        <v>586.1583867355939</v>
       </c>
       <c r="AD3" t="n">
-        <v>412224.9476905947</v>
+        <v>473601.7961244958</v>
       </c>
       <c r="AE3" t="n">
-        <v>564024.3595114555</v>
+        <v>648002.8712941681</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.798697277441287e-06</v>
+        <v>3.075571893291184e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.45061728395062</v>
       </c>
       <c r="AH3" t="n">
-        <v>510194.6662528418</v>
+        <v>586158.3867355939</v>
       </c>
     </row>
     <row r="4">
@@ -16425,28 +16425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>350.0567505681395</v>
+        <v>401.2610330841968</v>
       </c>
       <c r="AB4" t="n">
-        <v>478.9630895412232</v>
+        <v>549.0230478532068</v>
       </c>
       <c r="AC4" t="n">
-        <v>433.2515245043262</v>
+        <v>496.6250587247832</v>
       </c>
       <c r="AD4" t="n">
-        <v>350056.7505681395</v>
+        <v>401261.0330841967</v>
       </c>
       <c r="AE4" t="n">
-        <v>478963.0895412231</v>
+        <v>549023.0478532068</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.979490454243188e-06</v>
+        <v>3.384708077597717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.40509259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>433251.5245043262</v>
+        <v>496625.0587247832</v>
       </c>
     </row>
     <row r="5">
@@ -16531,28 +16531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>309.5462320437624</v>
+        <v>360.8357659058402</v>
       </c>
       <c r="AB5" t="n">
-        <v>423.5348108982271</v>
+        <v>493.7114138628601</v>
       </c>
       <c r="AC5" t="n">
-        <v>383.11324298094</v>
+        <v>446.5922894521094</v>
       </c>
       <c r="AD5" t="n">
-        <v>309546.2320437624</v>
+        <v>360835.7659058402</v>
       </c>
       <c r="AE5" t="n">
-        <v>423534.8108982272</v>
+        <v>493711.4138628601</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.081069850598079e-06</v>
+        <v>3.558397525113315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>383113.24298094</v>
+        <v>446592.2894521094</v>
       </c>
     </row>
     <row r="6">
@@ -16637,28 +16637,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>304.6580890069791</v>
+        <v>355.9476228690569</v>
       </c>
       <c r="AB6" t="n">
-        <v>416.8466379456493</v>
+        <v>487.0232409102823</v>
       </c>
       <c r="AC6" t="n">
-        <v>377.0633798680466</v>
+        <v>440.5424263392159</v>
       </c>
       <c r="AD6" t="n">
-        <v>304658.0890069791</v>
+        <v>355947.6228690569</v>
       </c>
       <c r="AE6" t="n">
-        <v>416846.6379456493</v>
+        <v>487023.2409102822</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.097563825098163e-06</v>
+        <v>3.58660038338043e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.818672839506172</v>
       </c>
       <c r="AH6" t="n">
-        <v>377063.3798680466</v>
+        <v>440542.4263392159</v>
       </c>
     </row>
   </sheetData>
@@ -16934,28 +16934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.9621749678101</v>
+        <v>302.9276742350439</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.5362988761285</v>
+        <v>414.4790081141757</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.4177468431531</v>
+        <v>374.9217133046994</v>
       </c>
       <c r="AD2" t="n">
-        <v>245962.17496781</v>
+        <v>302927.6742350439</v>
       </c>
       <c r="AE2" t="n">
-        <v>336536.2988761285</v>
+        <v>414479.0081141757</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.913202607772444e-06</v>
+        <v>4.100874391328249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.83101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>304417.746843153</v>
+        <v>374921.7133046994</v>
       </c>
     </row>
   </sheetData>
@@ -17231,28 +17231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.9000637784821</v>
+        <v>379.9989354283663</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.1743567240345</v>
+        <v>519.9313078229529</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.878418117408</v>
+        <v>470.3097935325032</v>
       </c>
       <c r="AD2" t="n">
-        <v>323900.0637784821</v>
+        <v>379998.9354283663</v>
       </c>
       <c r="AE2" t="n">
-        <v>443174.3567240345</v>
+        <v>519931.307822953</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.97568522677302e-06</v>
+        <v>3.640066740930989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.48148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>400878.4181174081</v>
+        <v>470309.7935325032</v>
       </c>
     </row>
     <row r="3">
@@ -17337,28 +17337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>262.2179475543669</v>
+        <v>309.0239160837432</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.7781640832865</v>
+        <v>422.8201551587751</v>
       </c>
       <c r="AC3" t="n">
-        <v>324.5368796514928</v>
+        <v>382.4667929822358</v>
       </c>
       <c r="AD3" t="n">
-        <v>262217.9475543669</v>
+        <v>309023.9160837432</v>
       </c>
       <c r="AE3" t="n">
-        <v>358778.1640832865</v>
+        <v>422820.1551587751</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.234293234407576e-06</v>
+        <v>4.116534548035325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.15046296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>324536.8796514928</v>
+        <v>382466.7929822358</v>
       </c>
     </row>
   </sheetData>
@@ -17634,28 +17634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>418.6490846128128</v>
+        <v>486.5600934445579</v>
       </c>
       <c r="AB2" t="n">
-        <v>572.8141470613532</v>
+        <v>665.7329853672077</v>
       </c>
       <c r="AC2" t="n">
-        <v>518.1455688155215</v>
+        <v>602.1963636058739</v>
       </c>
       <c r="AD2" t="n">
-        <v>418649.0846128128</v>
+        <v>486560.0934445579</v>
       </c>
       <c r="AE2" t="n">
-        <v>572814.1470613532</v>
+        <v>665732.9853672077</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.71815429369527e-06</v>
+        <v>3.069357257740485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>518145.5688155215</v>
+        <v>602196.3636058739</v>
       </c>
     </row>
     <row r="3">
@@ -17740,28 +17740,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.9565932691664</v>
+        <v>343.4401631276577</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.5726234773887</v>
+        <v>469.9099827019195</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.0562187104404</v>
+        <v>425.0624334756504</v>
       </c>
       <c r="AD3" t="n">
-        <v>294956.5932691664</v>
+        <v>343440.1631276577</v>
       </c>
       <c r="AE3" t="n">
-        <v>403572.6234773887</v>
+        <v>469909.9827019195</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.129241216712424e-06</v>
+        <v>3.803734045293823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.25462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>365056.2187104404</v>
+        <v>425062.4334756504</v>
       </c>
     </row>
     <row r="4">
@@ -17846,28 +17846,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>270.979559672478</v>
+        <v>329.091463408749</v>
       </c>
       <c r="AB4" t="n">
-        <v>370.7661883183325</v>
+        <v>450.2774587265532</v>
       </c>
       <c r="AC4" t="n">
-        <v>335.3807836788436</v>
+        <v>407.3036100340727</v>
       </c>
       <c r="AD4" t="n">
-        <v>270979.559672478</v>
+        <v>329091.463408749</v>
       </c>
       <c r="AE4" t="n">
-        <v>370766.1883183325</v>
+        <v>450277.4587265532</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.189973182621472e-06</v>
+        <v>3.912227270275888e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.969135802469136</v>
       </c>
       <c r="AH4" t="n">
-        <v>335380.7836788436</v>
+        <v>407303.6100340727</v>
       </c>
     </row>
   </sheetData>
